--- a/telefones.xlsx
+++ b/telefones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Área de Trabalho\VS Code\Python\RPA\wpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15534244-1E75-4FA6-922A-DED7F946F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E5682A-6C0C-4894-A904-B89C50381373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>telefone</t>
   </si>
@@ -29,15 +29,6 @@
   </si>
   <si>
     <t>mensagem</t>
-  </si>
-  <si>
-    <t>(37) 984039903</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>(37) 4039903</t>
   </si>
 </sst>
 </file>
@@ -400,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,46 +410,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
